--- a/final_project/airlines_test_2000_student.xlsx
+++ b/final_project/airlines_test_2000_student.xlsx
@@ -1,13 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneesh/Development/intro-to-ai/final_project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76D812-D8C0-A949-AEF2-FE96530C5953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M25CQYHyqWu0asM5j+nUcNKyPG0R3Aw9YWRGxL3I0Kc="/>
     </ext>
@@ -7619,23 +7642,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7644,11 +7671,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -7662,33 +7695,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -7878,27 +7915,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="17.29"/>
-    <col customWidth="1" min="7" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="17.86"/>
-    <col customWidth="1" min="11" max="17" width="8.71"/>
+    <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="17" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7930,7 +7970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -7962,7 +8002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -7994,7 +8034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -8026,7 +8066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -8058,7 +8098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -8090,7 +8130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -8122,7 +8162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -8154,7 +8194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -8186,7 +8226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
@@ -8218,7 +8258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -8250,7 +8290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
@@ -8282,7 +8322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -8314,7 +8354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -8346,7 +8386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -8378,7 +8418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -8410,7 +8450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>110</v>
       </c>
@@ -8442,7 +8482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>115</v>
       </c>
@@ -8474,7 +8514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>121</v>
       </c>
@@ -8506,7 +8546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>127</v>
       </c>
@@ -8538,7 +8578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>133</v>
       </c>
@@ -8570,7 +8610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>139</v>
       </c>
@@ -8602,7 +8642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>145</v>
       </c>
@@ -8634,7 +8674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>151</v>
       </c>
@@ -8666,7 +8706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>157</v>
       </c>
@@ -8698,7 +8738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>163</v>
       </c>
@@ -8730,7 +8770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>169</v>
       </c>
@@ -8762,7 +8802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>174</v>
       </c>
@@ -8794,7 +8834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>180</v>
       </c>
@@ -8826,7 +8866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>185</v>
       </c>
@@ -8858,7 +8898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>191</v>
       </c>
@@ -8890,7 +8930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
@@ -8922,7 +8962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>203</v>
       </c>
@@ -8954,7 +8994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>208</v>
       </c>
@@ -8986,7 +9026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>214</v>
       </c>
@@ -9018,7 +9058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>220</v>
       </c>
@@ -9050,7 +9090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>226</v>
       </c>
@@ -9082,7 +9122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>231</v>
       </c>
@@ -9114,7 +9154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>237</v>
       </c>
@@ -9146,7 +9186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>243</v>
       </c>
@@ -9178,7 +9218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>249</v>
       </c>
@@ -9210,7 +9250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>254</v>
       </c>
@@ -9242,7 +9282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>260</v>
       </c>
@@ -9274,7 +9314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>265</v>
       </c>
@@ -9306,7 +9346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>271</v>
       </c>
@@ -9338,7 +9378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>277</v>
       </c>
@@ -9370,7 +9410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>282</v>
       </c>
@@ -9402,7 +9442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>288</v>
       </c>
@@ -9434,7 +9474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>293</v>
       </c>
@@ -9466,7 +9506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>298</v>
       </c>
@@ -9498,7 +9538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>303</v>
       </c>
@@ -9530,7 +9570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>308</v>
       </c>
@@ -9562,7 +9602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>313</v>
       </c>
@@ -9594,7 +9634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>319</v>
       </c>
@@ -9626,7 +9666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>325</v>
       </c>
@@ -9658,7 +9698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>331</v>
       </c>
@@ -9690,7 +9730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>337</v>
       </c>
@@ -9722,7 +9762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>343</v>
       </c>
@@ -9754,7 +9794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>349</v>
       </c>
@@ -9786,7 +9826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>355</v>
       </c>
@@ -9818,7 +9858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>361</v>
       </c>
@@ -9850,7 +9890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>367</v>
       </c>
@@ -9882,7 +9922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>373</v>
       </c>
@@ -9914,7 +9954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>378</v>
       </c>
@@ -9946,7 +9986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>384</v>
       </c>
@@ -9978,7 +10018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>390</v>
       </c>
@@ -10010,7 +10050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>395</v>
       </c>
@@ -10042,7 +10082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>401</v>
       </c>
@@ -10074,7 +10114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>406</v>
       </c>
@@ -10106,7 +10146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>411</v>
       </c>
@@ -10138,7 +10178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>416</v>
       </c>
@@ -10170,7 +10210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>421</v>
       </c>
@@ -10202,7 +10242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>426</v>
       </c>
@@ -10234,7 +10274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>432</v>
       </c>
@@ -10266,7 +10306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>438</v>
       </c>
@@ -10298,7 +10338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>443</v>
       </c>
@@ -10330,7 +10370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>448</v>
       </c>
@@ -10362,7 +10402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>453</v>
       </c>
@@ -10394,7 +10434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>459</v>
       </c>
@@ -10426,7 +10466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>464</v>
       </c>
@@ -10458,7 +10498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>470</v>
       </c>
@@ -10490,7 +10530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>475</v>
       </c>
@@ -10522,7 +10562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>480</v>
       </c>
@@ -10554,7 +10594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>484</v>
       </c>
@@ -10586,7 +10626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>490</v>
       </c>
@@ -10618,7 +10658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>496</v>
       </c>
@@ -10650,7 +10690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>501</v>
       </c>
@@ -10682,7 +10722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>506</v>
       </c>
@@ -10714,7 +10754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>512</v>
       </c>
@@ -10746,7 +10786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>517</v>
       </c>
@@ -10778,7 +10818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>522</v>
       </c>
@@ -10810,7 +10850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>527</v>
       </c>
@@ -10842,7 +10882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>532</v>
       </c>
@@ -10874,7 +10914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>537</v>
       </c>
@@ -10906,7 +10946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>543</v>
       </c>
@@ -10938,7 +10978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>549</v>
       </c>
@@ -10970,7 +11010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>554</v>
       </c>
@@ -11002,7 +11042,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>560</v>
       </c>
@@ -11034,7 +11074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>566</v>
       </c>
@@ -11066,7 +11106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>571</v>
       </c>
@@ -11098,7 +11138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>577</v>
       </c>
@@ -11130,7 +11170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>583</v>
       </c>
@@ -11162,7 +11202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>588</v>
       </c>
@@ -11194,7 +11234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>593</v>
       </c>
@@ -11226,7 +11266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>598</v>
       </c>
@@ -11258,7 +11298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>602</v>
       </c>
@@ -11290,7 +11330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>608</v>
       </c>
@@ -11322,7 +11362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>613</v>
       </c>
@@ -11354,7 +11394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>619</v>
       </c>
@@ -11386,7 +11426,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>626</v>
       </c>
@@ -11418,7 +11458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>630</v>
       </c>
@@ -11450,7 +11490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>635</v>
       </c>
@@ -11482,7 +11522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>640</v>
       </c>
@@ -11514,7 +11554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>645</v>
       </c>
@@ -11546,7 +11586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>651</v>
       </c>
@@ -11578,7 +11618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>657</v>
       </c>
@@ -11610,7 +11650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>662</v>
       </c>
@@ -11642,7 +11682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>667</v>
       </c>
@@ -11674,7 +11714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>673</v>
       </c>
@@ -11706,7 +11746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>678</v>
       </c>
@@ -11738,7 +11778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>684</v>
       </c>
@@ -11770,7 +11810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>690</v>
       </c>
@@ -11802,7 +11842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>695</v>
       </c>
@@ -11834,7 +11874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>701</v>
       </c>
@@ -11866,7 +11906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>706</v>
       </c>
@@ -11898,7 +11938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>711</v>
       </c>
@@ -11930,7 +11970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>716</v>
       </c>
@@ -11962,7 +12002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>721</v>
       </c>
@@ -11994,7 +12034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>725</v>
       </c>
@@ -12026,7 +12066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>730</v>
       </c>
@@ -12058,7 +12098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>735</v>
       </c>
@@ -12090,7 +12130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>740</v>
       </c>
@@ -12122,7 +12162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>745</v>
       </c>
@@ -12154,7 +12194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>751</v>
       </c>
@@ -12186,7 +12226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>755</v>
       </c>
@@ -12218,7 +12258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>761</v>
       </c>
@@ -12250,7 +12290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>765</v>
       </c>
@@ -12282,7 +12322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>770</v>
       </c>
@@ -12314,7 +12354,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>775</v>
       </c>
@@ -12346,7 +12386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>781</v>
       </c>
@@ -12378,7 +12418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>786</v>
       </c>
@@ -12410,7 +12450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>791</v>
       </c>
@@ -12442,7 +12482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>796</v>
       </c>
@@ -12474,7 +12514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>801</v>
       </c>
@@ -12506,7 +12546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>805</v>
       </c>
@@ -12538,7 +12578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>810</v>
       </c>
@@ -12570,7 +12610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>815</v>
       </c>
@@ -12602,7 +12642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>820</v>
       </c>
@@ -12634,7 +12674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>825</v>
       </c>
@@ -12666,7 +12706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>830</v>
       </c>
@@ -12698,7 +12738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>835</v>
       </c>
@@ -12730,7 +12770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>840</v>
       </c>
@@ -12762,7 +12802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>845</v>
       </c>
@@ -12794,7 +12834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>850</v>
       </c>
@@ -12826,7 +12866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>855</v>
       </c>
@@ -12858,7 +12898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>861</v>
       </c>
@@ -12890,7 +12930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>866</v>
       </c>
@@ -12922,7 +12962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>871</v>
       </c>
@@ -12954,7 +12994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>876</v>
       </c>
@@ -12986,7 +13026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>880</v>
       </c>
@@ -13018,7 +13058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>884</v>
       </c>
@@ -13050,7 +13090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>889</v>
       </c>
@@ -13082,7 +13122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>894</v>
       </c>
@@ -13114,7 +13154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>899</v>
       </c>
@@ -13146,7 +13186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>903</v>
       </c>
@@ -13178,7 +13218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>908</v>
       </c>
@@ -13210,7 +13250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>914</v>
       </c>
@@ -13242,7 +13282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>919</v>
       </c>
@@ -13274,7 +13314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>923</v>
       </c>
@@ -13306,7 +13346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>928</v>
       </c>
@@ -13338,7 +13378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>933</v>
       </c>
@@ -13370,7 +13410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>939</v>
       </c>
@@ -13402,7 +13442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>944</v>
       </c>
@@ -13434,7 +13474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>949</v>
       </c>
@@ -13466,7 +13506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>954</v>
       </c>
@@ -13498,7 +13538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>958</v>
       </c>
@@ -13530,7 +13570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>964</v>
       </c>
@@ -13562,7 +13602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>969</v>
       </c>
@@ -13594,7 +13634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>974</v>
       </c>
@@ -13626,7 +13666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>979</v>
       </c>
@@ -13658,7 +13698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>984</v>
       </c>
@@ -13690,7 +13730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>989</v>
       </c>
@@ -13722,7 +13762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>994</v>
       </c>
@@ -13754,7 +13794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1000</v>
       </c>
@@ -13786,7 +13826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1005</v>
       </c>
@@ -13818,7 +13858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1010</v>
       </c>
@@ -13850,7 +13890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1015</v>
       </c>
@@ -13882,7 +13922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1020</v>
       </c>
@@ -13914,7 +13954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1025</v>
       </c>
@@ -13946,7 +13986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1031</v>
       </c>
@@ -13978,7 +14018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1036</v>
       </c>
@@ -14010,7 +14050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1041</v>
       </c>
@@ -14042,7 +14082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1046</v>
       </c>
@@ -14074,7 +14114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1051</v>
       </c>
@@ -14106,7 +14146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1057</v>
       </c>
@@ -14138,7 +14178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1062</v>
       </c>
@@ -14170,7 +14210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1066</v>
       </c>
@@ -14202,7 +14242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1071</v>
       </c>
@@ -14234,7 +14274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1076</v>
       </c>
@@ -14266,7 +14306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1081</v>
       </c>
@@ -14298,7 +14338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1086</v>
       </c>
@@ -14330,7 +14370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1091</v>
       </c>
@@ -14362,7 +14402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1096</v>
       </c>
@@ -14394,7 +14434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1101</v>
       </c>
@@ -14426,7 +14466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1107</v>
       </c>
@@ -14458,7 +14498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1112</v>
       </c>
@@ -14490,7 +14530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1117</v>
       </c>
@@ -14522,7 +14562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1121</v>
       </c>
@@ -14554,7 +14594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1126</v>
       </c>
@@ -14586,7 +14626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1130</v>
       </c>
@@ -14618,7 +14658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>1135</v>
       </c>
@@ -14650,7 +14690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1140</v>
       </c>
@@ -14682,7 +14722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1145</v>
       </c>
@@ -14714,7 +14754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>1151</v>
       </c>
@@ -14746,7 +14786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>1157</v>
       </c>
@@ -14778,7 +14818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1159</v>
       </c>
@@ -14810,7 +14850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>1164</v>
       </c>
@@ -14842,7 +14882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>1169</v>
       </c>
@@ -14874,7 +14914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>761</v>
       </c>
@@ -14906,7 +14946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>1178</v>
       </c>
@@ -14938,7 +14978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>1184</v>
       </c>
@@ -14970,7 +15010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1189</v>
       </c>
@@ -15002,7 +15042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>1194</v>
       </c>
@@ -15034,7 +15074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1199</v>
       </c>
@@ -15066,7 +15106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1204</v>
       </c>
@@ -15098,7 +15138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>1209</v>
       </c>
@@ -15130,7 +15170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1214</v>
       </c>
@@ -15162,7 +15202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>1219</v>
       </c>
@@ -15194,7 +15234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1224</v>
       </c>
@@ -15226,7 +15266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>1229</v>
       </c>
@@ -15258,7 +15298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>1234</v>
       </c>
@@ -15290,7 +15330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>1239</v>
       </c>
@@ -15322,7 +15362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>1244</v>
       </c>
@@ -15354,7 +15394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1248</v>
       </c>
@@ -15386,7 +15426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>1252</v>
       </c>
@@ -15418,7 +15458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1257</v>
       </c>
@@ -15450,7 +15490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1262</v>
       </c>
@@ -15482,7 +15522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>1267</v>
       </c>
@@ -15514,7 +15554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1272</v>
       </c>
@@ -15546,7 +15586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1277</v>
       </c>
@@ -15578,7 +15618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1282</v>
       </c>
@@ -15610,7 +15650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>1287</v>
       </c>
@@ -15642,7 +15682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1292</v>
       </c>
@@ -15674,7 +15714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1297</v>
       </c>
@@ -15706,7 +15746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>1302</v>
       </c>
@@ -15738,7 +15778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1307</v>
       </c>
@@ -15770,7 +15810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1312</v>
       </c>
@@ -15802,7 +15842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>1317</v>
       </c>
@@ -15834,7 +15874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>1322</v>
       </c>
@@ -15866,7 +15906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>1327</v>
       </c>
@@ -15898,7 +15938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>1332</v>
       </c>
@@ -15930,7 +15970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>1336</v>
       </c>
@@ -15962,7 +16002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>1340</v>
       </c>
@@ -15994,7 +16034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1344</v>
       </c>
@@ -16026,7 +16066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>1348</v>
       </c>
@@ -16058,7 +16098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>1352</v>
       </c>
@@ -16090,7 +16130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1357</v>
       </c>
@@ -16122,7 +16162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>1362</v>
       </c>
@@ -16154,7 +16194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>1366</v>
       </c>
@@ -16186,7 +16226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>1371</v>
       </c>
@@ -16218,7 +16258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>1376</v>
       </c>
@@ -16250,7 +16290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>1381</v>
       </c>
@@ -16282,7 +16322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>1386</v>
       </c>
@@ -16314,7 +16354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>1391</v>
       </c>
@@ -16346,7 +16386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>1396</v>
       </c>
@@ -16378,7 +16418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>1401</v>
       </c>
@@ -16410,7 +16450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>1406</v>
       </c>
@@ -16442,7 +16482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>1411</v>
       </c>
@@ -16474,7 +16514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>1416</v>
       </c>
@@ -16506,7 +16546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>1421</v>
       </c>
@@ -16538,7 +16578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>1426</v>
       </c>
@@ -16570,7 +16610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>1431</v>
       </c>
@@ -16602,7 +16642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>1436</v>
       </c>
@@ -16634,7 +16674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>1441</v>
       </c>
@@ -16666,7 +16706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>1446</v>
       </c>
@@ -16698,7 +16738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>1451</v>
       </c>
@@ -16730,7 +16770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>1456</v>
       </c>
@@ -16762,7 +16802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>1461</v>
       </c>
@@ -16794,7 +16834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>1465</v>
       </c>
@@ -16826,7 +16866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>1470</v>
       </c>
@@ -16858,7 +16898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>1475</v>
       </c>
@@ -16890,7 +16930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>1480</v>
       </c>
@@ -16922,7 +16962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>1485</v>
       </c>
@@ -16954,7 +16994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>1490</v>
       </c>
@@ -16986,7 +17026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>1495</v>
       </c>
@@ -17018,7 +17058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>1500</v>
       </c>
@@ -17050,7 +17090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>1505</v>
       </c>
@@ -17082,7 +17122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>1510</v>
       </c>
@@ -17114,7 +17154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1514</v>
       </c>
@@ -17146,7 +17186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>1519</v>
       </c>
@@ -17178,7 +17218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>1523</v>
       </c>
@@ -17210,7 +17250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>1528</v>
       </c>
@@ -17242,7 +17282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>1533</v>
       </c>
@@ -17274,7 +17314,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>1538</v>
       </c>
@@ -17306,7 +17346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>1543</v>
       </c>
@@ -17338,7 +17378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>1548</v>
       </c>
@@ -17370,7 +17410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>1553</v>
       </c>
@@ -17402,7 +17442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>1558</v>
       </c>
@@ -17434,7 +17474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>1563</v>
       </c>
@@ -17466,7 +17506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>1567</v>
       </c>
@@ -17498,7 +17538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>1572</v>
       </c>
@@ -17530,7 +17570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>1577</v>
       </c>
@@ -17562,7 +17602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>1582</v>
       </c>
@@ -17594,7 +17634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>1587</v>
       </c>
@@ -17626,7 +17666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>1591</v>
       </c>
@@ -17658,7 +17698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>1596</v>
       </c>
@@ -17690,7 +17730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>1601</v>
       </c>
@@ -17722,7 +17762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1606</v>
       </c>
@@ -17754,7 +17794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>1611</v>
       </c>
@@ -17786,7 +17826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>1617</v>
       </c>
@@ -17818,7 +17858,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>1622</v>
       </c>
@@ -17850,7 +17890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>1627</v>
       </c>
@@ -17882,7 +17922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>1632</v>
       </c>
@@ -17914,7 +17954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>1637</v>
       </c>
@@ -17946,7 +17986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>1640</v>
       </c>
@@ -17978,7 +18018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>1645</v>
       </c>
@@ -18010,7 +18050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>1650</v>
       </c>
@@ -18042,7 +18082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>1655</v>
       </c>
@@ -18074,7 +18114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>1659</v>
       </c>
@@ -18106,7 +18146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>1664</v>
       </c>
@@ -18138,7 +18178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>1669</v>
       </c>
@@ -18170,7 +18210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>1673</v>
       </c>
@@ -18202,7 +18242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>1678</v>
       </c>
@@ -18234,7 +18274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>1682</v>
       </c>
@@ -18266,7 +18306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1687</v>
       </c>
@@ -18298,7 +18338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>1692</v>
       </c>
@@ -18330,7 +18370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>1697</v>
       </c>
@@ -18362,7 +18402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1702</v>
       </c>
@@ -18394,7 +18434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>1706</v>
       </c>
@@ -18426,7 +18466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>1711</v>
       </c>
@@ -18458,7 +18498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>1716</v>
       </c>
@@ -18490,7 +18530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>1721</v>
       </c>
@@ -18522,7 +18562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>1726</v>
       </c>
@@ -18554,7 +18594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>1731</v>
       </c>
@@ -18586,7 +18626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>1735</v>
       </c>
@@ -18618,7 +18658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>1740</v>
       </c>
@@ -18650,7 +18690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>1745</v>
       </c>
@@ -18682,7 +18722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>1750</v>
       </c>
@@ -18714,7 +18754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>1755</v>
       </c>
@@ -18746,7 +18786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>1760</v>
       </c>
@@ -18778,7 +18818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>1764</v>
       </c>
@@ -18810,7 +18850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>1769</v>
       </c>
@@ -18842,7 +18882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>1774</v>
       </c>
@@ -18874,7 +18914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>1779</v>
       </c>
@@ -18906,7 +18946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>1784</v>
       </c>
@@ -18938,7 +18978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>1788</v>
       </c>
@@ -18970,7 +19010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>1793</v>
       </c>
@@ -19002,7 +19042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>1798</v>
       </c>
@@ -19034,7 +19074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>1804</v>
       </c>
@@ -19066,7 +19106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>1808</v>
       </c>
@@ -19098,7 +19138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1813</v>
       </c>
@@ -19130,7 +19170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>1816</v>
       </c>
@@ -19162,7 +19202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>1821</v>
       </c>
@@ -19194,7 +19234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>1826</v>
       </c>
@@ -19226,7 +19266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>1830</v>
       </c>
@@ -19258,7 +19298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>1835</v>
       </c>
@@ -19290,7 +19330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>1840</v>
       </c>
@@ -19322,7 +19362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>1845</v>
       </c>
@@ -19354,7 +19394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>1850</v>
       </c>
@@ -19386,7 +19426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>1855</v>
       </c>
@@ -19418,7 +19458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>1860</v>
       </c>
@@ -19450,7 +19490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>1865</v>
       </c>
@@ -19482,7 +19522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>1870</v>
       </c>
@@ -19514,7 +19554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>1875</v>
       </c>
@@ -19546,7 +19586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>1879</v>
       </c>
@@ -19578,7 +19618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>1883</v>
       </c>
@@ -19610,7 +19650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>1887</v>
       </c>
@@ -19642,7 +19682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1892</v>
       </c>
@@ -19674,7 +19714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>1896</v>
       </c>
@@ -19706,7 +19746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>1901</v>
       </c>
@@ -19738,7 +19778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>1906</v>
       </c>
@@ -19770,7 +19810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>1911</v>
       </c>
@@ -19802,7 +19842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>1916</v>
       </c>
@@ -19834,7 +19874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>1921</v>
       </c>
@@ -19866,7 +19906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>1926</v>
       </c>
@@ -19898,7 +19938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>1931</v>
       </c>
@@ -19930,7 +19970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>1936</v>
       </c>
@@ -19962,7 +20002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>1941</v>
       </c>
@@ -19994,7 +20034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>1946</v>
       </c>
@@ -20026,7 +20066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>1952</v>
       </c>
@@ -20058,7 +20098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>1956</v>
       </c>
@@ -20090,7 +20130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>1961</v>
       </c>
@@ -20122,7 +20162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>1966</v>
       </c>
@@ -20154,7 +20194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>1971</v>
       </c>
@@ -20186,7 +20226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>1976</v>
       </c>
@@ -20218,7 +20258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>1981</v>
       </c>
@@ -20250,7 +20290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>1986</v>
       </c>
@@ -20282,7 +20322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1990</v>
       </c>
@@ -20314,7 +20354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>1995</v>
       </c>
@@ -20346,7 +20386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>2000</v>
       </c>
@@ -20378,7 +20418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>2003</v>
       </c>
@@ -20410,7 +20450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>2007</v>
       </c>
@@ -20442,7 +20482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>2012</v>
       </c>
@@ -20474,7 +20514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>2017</v>
       </c>
@@ -20506,7 +20546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>2022</v>
       </c>
@@ -20538,7 +20578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>2027</v>
       </c>
@@ -20570,7 +20610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>2032</v>
       </c>
@@ -20602,7 +20642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>2037</v>
       </c>
@@ -20634,7 +20674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>2041</v>
       </c>
@@ -20666,7 +20706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>2045</v>
       </c>
@@ -20698,7 +20738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>2050</v>
       </c>
@@ -20730,7 +20770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>2054</v>
       </c>
@@ -20762,7 +20802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>2059</v>
       </c>
@@ -20794,7 +20834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>2064</v>
       </c>
@@ -20826,7 +20866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>2069</v>
       </c>
@@ -20858,7 +20898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>2073</v>
       </c>
@@ -20890,7 +20930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>2078</v>
       </c>
@@ -20922,7 +20962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>2083</v>
       </c>
@@ -20954,7 +20994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>2088</v>
       </c>
@@ -20986,7 +21026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>2092</v>
       </c>
@@ -21018,7 +21058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>2098</v>
       </c>
@@ -21050,7 +21090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>2103</v>
       </c>
@@ -21082,7 +21122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>2108</v>
       </c>
@@ -21114,7 +21154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>2113</v>
       </c>
@@ -21146,7 +21186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>2118</v>
       </c>
@@ -21178,7 +21218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>2123</v>
       </c>
@@ -21210,7 +21250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>2128</v>
       </c>
@@ -21242,7 +21282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>2133</v>
       </c>
@@ -21274,7 +21314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>2138</v>
       </c>
@@ -21306,7 +21346,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>2143</v>
       </c>
@@ -21338,7 +21378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>2148</v>
       </c>
@@ -21370,7 +21410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>2152</v>
       </c>
@@ -21402,7 +21442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>2157</v>
       </c>
@@ -21434,7 +21474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>2162</v>
       </c>
@@ -21466,7 +21506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>2167</v>
       </c>
@@ -21498,7 +21538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>2171</v>
       </c>
@@ -21530,7 +21570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>2175</v>
       </c>
@@ -21562,7 +21602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>2180</v>
       </c>
@@ -21594,7 +21634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>2185</v>
       </c>
@@ -21626,7 +21666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>2191</v>
       </c>
@@ -21658,7 +21698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>2195</v>
       </c>
@@ -21690,7 +21730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>2200</v>
       </c>
@@ -21722,7 +21762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>2204</v>
       </c>
@@ -21754,7 +21794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>2208</v>
       </c>
@@ -21786,7 +21826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>2213</v>
       </c>
@@ -21818,7 +21858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>2218</v>
       </c>
@@ -21850,7 +21890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>2223</v>
       </c>
@@ -21882,7 +21922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>2228</v>
       </c>
@@ -21914,7 +21954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>2233</v>
       </c>
@@ -21946,7 +21986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>2237</v>
       </c>
@@ -21978,7 +22018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>2241</v>
       </c>
@@ -22010,7 +22050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>2246</v>
       </c>
@@ -22042,7 +22082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>2251</v>
       </c>
@@ -22074,7 +22114,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>2256</v>
       </c>
@@ -22106,7 +22146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>2260</v>
       </c>
@@ -22138,7 +22178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>2265</v>
       </c>
@@ -22170,7 +22210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>2270</v>
       </c>
@@ -22202,7 +22242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>2275</v>
       </c>
@@ -22234,7 +22274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>2280</v>
       </c>
@@ -22266,7 +22306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>2285</v>
       </c>
@@ -22298,7 +22338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>2289</v>
       </c>
@@ -22330,7 +22370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>2293</v>
       </c>
@@ -22362,7 +22402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>2298</v>
       </c>
@@ -22394,7 +22434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>2303</v>
       </c>
@@ -22426,7 +22466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>2308</v>
       </c>
@@ -22458,7 +22498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>2313</v>
       </c>
@@ -22490,7 +22530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>2318</v>
       </c>
@@ -22522,7 +22562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>2323</v>
       </c>
@@ -22554,7 +22594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>2329</v>
       </c>
@@ -22586,7 +22626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>2334</v>
       </c>
@@ -22618,7 +22658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>2338</v>
       </c>
@@ -22650,7 +22690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>2343</v>
       </c>
@@ -22682,7 +22722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>2348</v>
       </c>
@@ -22714,7 +22754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>2353</v>
       </c>
@@ -22746,7 +22786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>2358</v>
       </c>
@@ -22778,7 +22818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>2363</v>
       </c>
@@ -22810,7 +22850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>2367</v>
       </c>
@@ -22842,7 +22882,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>2371</v>
       </c>
@@ -22874,7 +22914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>2376</v>
       </c>
@@ -22906,7 +22946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>2380</v>
       </c>
@@ -22938,7 +22978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>2385</v>
       </c>
@@ -22970,7 +23010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>2390</v>
       </c>
@@ -23002,7 +23042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>2395</v>
       </c>
@@ -23034,7 +23074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>2400</v>
       </c>
@@ -23066,7 +23106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>2405</v>
       </c>
@@ -23098,7 +23138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>2410</v>
       </c>
@@ -23130,7 +23170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>2415</v>
       </c>
@@ -23162,7 +23202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>2420</v>
       </c>
@@ -23194,7 +23234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>2425</v>
       </c>
@@ -23226,7 +23266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>2430</v>
       </c>
@@ -23258,7 +23298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>2434</v>
       </c>
@@ -23290,7 +23330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>2439</v>
       </c>
@@ -23322,7 +23362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>2443</v>
       </c>
@@ -23354,7 +23394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>2447</v>
       </c>
@@ -23386,7 +23426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>2451</v>
       </c>
@@ -23418,7 +23458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>2456</v>
       </c>
@@ -23450,7 +23490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>2460</v>
       </c>
@@ -23482,7 +23522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>2465</v>
       </c>
@@ -23514,7 +23554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>2470</v>
       </c>
@@ -23546,7 +23586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>2474</v>
       </c>
@@ -23578,7 +23618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>2479</v>
       </c>
@@ -23610,7 +23650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>2483</v>
       </c>
@@ -23642,7 +23682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>2488</v>
       </c>
@@ -23674,7 +23714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>2492</v>
       </c>
@@ -23706,7 +23746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>2497</v>
       </c>
@@ -23738,7 +23778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>2502</v>
       </c>
@@ -23770,7 +23810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>2506</v>
       </c>
@@ -23802,7 +23842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>2511</v>
       </c>
@@ -23834,7 +23874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>2516</v>
       </c>
@@ -23866,7 +23906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>378</v>
       </c>
@@ -23898,7 +23938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>2524</v>
       </c>
@@ -23930,509 +23970,508 @@
         <v>559</v>
       </c>
     </row>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="502" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>